--- a/meetup/events/Film.xlsx
+++ b/meetup/events/Film.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Filmmaker Intensive - Crash Course *GET TICKETS ON EVENTBRITE IN DESCRIPTION*</t>
   </si>
   <si>
+    <t xml:space="preserve">Open reading for pilot "The Ladybug Files." </t>
+  </si>
+  <si>
     <t>2020-09-09T19:00-05:00[US/Central]</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
     <t>2021-01-30T14:00-06:00[US/Central]</t>
   </si>
   <si>
+    <t>2021-02-02T18:00-06:00[US/Central]</t>
+  </si>
+  <si>
     <t>Dallas Film Events</t>
   </si>
   <si>
@@ -248,6 +254,9 @@
   </si>
   <si>
     <t>https://www.meetup.com/dallasfilmcrew/events/275566825/</t>
+  </si>
+  <si>
+    <t>https://www.meetup.com/The-Bleak-Empire/events/276093445/</t>
   </si>
 </sst>
 </file>
@@ -618,625 +627,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>77</v>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
-    <hyperlink ref="I14" r:id="rId13"/>
-    <hyperlink ref="I15" r:id="rId14"/>
-    <hyperlink ref="I16" r:id="rId15"/>
-    <hyperlink ref="I17" r:id="rId16"/>
-    <hyperlink ref="I18" r:id="rId17"/>
-    <hyperlink ref="I19" r:id="rId18"/>
-    <hyperlink ref="I20" r:id="rId19"/>
-    <hyperlink ref="I21" r:id="rId20"/>
-    <hyperlink ref="I22" r:id="rId21"/>
-    <hyperlink ref="I23" r:id="rId22"/>
-    <hyperlink ref="I24" r:id="rId23"/>
-    <hyperlink ref="I25" r:id="rId24"/>
-    <hyperlink ref="I26" r:id="rId25"/>
-    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+    <hyperlink ref="H23" r:id="rId22"/>
+    <hyperlink ref="H24" r:id="rId23"/>
+    <hyperlink ref="H25" r:id="rId24"/>
+    <hyperlink ref="H26" r:id="rId25"/>
+    <hyperlink ref="H27" r:id="rId26"/>
+    <hyperlink ref="H28" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
